--- a/componentes_pca.xlsx
+++ b/componentes_pca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2489b4ab3e3a2fa6/Escritorio/David Guzzi/Github/MECMT04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_2B59CA57D22A6463A3DA28115983F0744851E4F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90898C1B-EC00-4B2E-BF5A-77763EABE8E1}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_2B59CA57D22A6463A3DA28115983F0744851E4F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7BBFE0-C538-4DE2-A23D-14671EF2E49C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,16 +218,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +248,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,458 +542,460 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.153256759634937</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.39489633940565E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1.3922970250370941E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1.337094004803141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.68813462985514529</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.43938468226914579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1.5150700083287301</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1.248456847383643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.74845683729125589</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-2.148930610579407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.710223702059094</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1.0624978527294711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.3004549174461322</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.93641556482157207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.1523397883659019</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4909170770353451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-1.24968908501604</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.20133075387632859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-2.6430876586270502</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.943163317539111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.75201778433910638</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.91283513154529383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.54896571565597</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-0.89553664385658949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-1.5536328989241499</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.7013255287584809E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1.9121147246845309</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-8.9692990824845331E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.98774956076515608</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.55336810012499005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-1.4229914064316811</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.5780853973919029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.434368487089875</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-1.6191020472587629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-1.1159807283448739</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-0.14541685587908651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-0.70970056438907447</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-1.7617869750736359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.90682692720318225</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.70914090955266551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-3.9687354091786017E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-1.592712045413565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.17254521221767899</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-1.017879244609744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.881784114324393</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.1805281926603608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-0.44036979947470439</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.303094246513997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-1.732149544249318</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-0.52081801275014006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.91401067042983819</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.48829769644949023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-1.1605456296486449</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-7.5002825990614051E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3.068232106635528</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-0.22661484903395401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B30" s="3">
         <v>0.58501663336438836</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C30" s="3">
         <v>-2.0710569156053338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.74845683729125589</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-2.148930610579407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-0.72871961014353381</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.8293910292676241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-3.4715356831290872E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.57866709589455423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-1.22463726817795</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.64777452217249754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-3.8293514045256161E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.81845342764060247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-0.7343338677859953</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8.4817443285846783E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B36" s="3">
         <v>0.62870824961806659</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C36" s="3">
         <v>-2.0062200595644208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.54896571565597</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-0.89553664385658949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-3.9687354091786017E-2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-1.592712045413565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.710223702059094</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-1.0624978527294711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.17254521221767899</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-1.017879244609744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1.434368487089875</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-1.6191020472587629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.75201778433910638</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.91283513154529383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-0.70970056438907447</v>
-      </c>
-      <c r="C11" s="4">
-        <v>-1.7617869750736359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>-3.8293514045256161E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.81845342764060247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1.881784114324393</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.1805281926603608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-0.68813462985514529</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.43938468226914579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2.1523397883659019</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.4909170770353451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B37" s="3">
         <v>-0.89888596975805624</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C37" s="3">
         <v>-1.330365758242785</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
-        <v>-1.22463726817795</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.64777452217249754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3.068232106635528</v>
-      </c>
-      <c r="C18" s="4">
-        <v>-0.22661484903395401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3.3004549174461322</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.93641556482157207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1.153256759634937</v>
-      </c>
-      <c r="C20" s="4">
-        <v>7.39489633940565E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4">
-        <v>-3.4715356831290872E-2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.57866709589455423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.9222548044072649</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3.4483094678046928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-2.2059894823895601</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-9.4944778592930865E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B40" s="3">
         <v>-0.99090634499366326</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C40" s="3">
         <v>-1.0317554326724949</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4">
-        <v>-0.90682692720318225</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.70914090955266551</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4">
-        <v>-1.5150700083287301</v>
-      </c>
-      <c r="C24" s="4">
-        <v>-1.248456847383643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.98774956076515608</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.55336810012499005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4">
-        <v>-1.24968908501604</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.20133075387632859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4">
-        <v>-1.3922970250370941E-2</v>
-      </c>
-      <c r="C27" s="4">
-        <v>-1.337094004803141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4">
-        <v>-0.72871961014353381</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1.8293910292676241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4">
-        <v>-0.44036979947470439</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2.303094246513997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4">
-        <v>-1.9121147246845309</v>
-      </c>
-      <c r="C30" s="4">
-        <v>-8.9692990824845331E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1.9222548044072649</v>
-      </c>
-      <c r="C31" s="4">
-        <v>3.4483094678046928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.91401067042983819</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.48829769644949023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4">
-        <v>-1.732149544249318</v>
-      </c>
-      <c r="C33" s="4">
-        <v>-0.52081801275014006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4">
-        <v>-1.5536328989241499</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.7013255287584809E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4">
-        <v>-0.7343338677859953</v>
-      </c>
-      <c r="C35" s="4">
-        <v>8.4817443285846783E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4">
-        <v>-1.1605456296486449</v>
-      </c>
-      <c r="C36" s="4">
-        <v>-7.5002825990614051E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4">
-        <v>-1.4229914064316811</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1.5780853973919029</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4">
-        <v>-2.6430876586270502</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1.943163317539111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4">
-        <v>-1.1159807283448739</v>
-      </c>
-      <c r="C39" s="4">
-        <v>-0.14541685587908651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4">
-        <v>-2.2059894823895601</v>
-      </c>
-      <c r="C40" s="4">
-        <v>-9.4944778592930865E-2</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>